--- a/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES HERRADURA  DICIEMBRE     2021.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#14  ARCHIVO  2 0 2 1/CENTRAL # 12  DICIEMBRE   2021/CREDITOS  4 CARNES HERRADURA  DICIEMBRE     2021.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#14  ARCHIVO  2 0 2 1\CENTRAL # 12  DICIEMBRE   2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -856,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,6 +1029,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1074,10 +1078,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF660033"/>
       <color rgb="FFFF9900"/>
       <color rgb="FF660066"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1934,25 +1938,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -2813,12 +2817,12 @@
       <c r="B50" s="39"/>
       <c r="C50" s="40"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="82">
+      <c r="E50" s="84">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="86"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -2834,11 +2838,11 @@
       <c r="B52" s="39"/>
       <c r="C52" s="40"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2981,25 +2985,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -3869,12 +3873,12 @@
       <c r="B50" s="39"/>
       <c r="C50" s="40"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="82">
+      <c r="E50" s="84">
         <f>E46-G46</f>
         <v>0</v>
       </c>
-      <c r="F50" s="83"/>
-      <c r="G50" s="84"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="86"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3890,11 +3894,11 @@
       <c r="B52" s="39"/>
       <c r="C52" s="40"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,25 +4041,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -5029,12 +5033,12 @@
       <c r="B53" s="39"/>
       <c r="C53" s="40"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="82">
+      <c r="E53" s="84">
         <f>E49-G49</f>
         <v>0</v>
       </c>
-      <c r="F53" s="83"/>
-      <c r="G53" s="84"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -5050,11 +5054,11 @@
       <c r="B55" s="39"/>
       <c r="C55" s="40"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="85" t="s">
+      <c r="E55" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -5196,25 +5200,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6214,12 +6218,12 @@
       <c r="B54" s="39"/>
       <c r="C54" s="40"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="82">
+      <c r="E54" s="84">
         <f>E50-G50</f>
         <v>0</v>
       </c>
-      <c r="F54" s="83"/>
-      <c r="G54" s="84"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="86"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -6235,11 +6239,11 @@
       <c r="B56" s="39"/>
       <c r="C56" s="40"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="85" t="s">
+      <c r="E56" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -6362,8 +6366,8 @@
   </sheetPr>
   <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6382,25 +6386,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="5"/>
       <c r="I2" s="2"/>
@@ -6950,7 +6954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="12">
         <v>44552</v>
       </c>
@@ -6965,11 +6969,15 @@
       <c r="E24" s="21">
         <v>2916</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="F24" s="78">
+        <v>44566</v>
+      </c>
+      <c r="G24" s="79">
+        <v>2916</v>
+      </c>
       <c r="H24" s="19">
         <f t="shared" si="0"/>
-        <v>2916</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -7180,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="77" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="77" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="76">
         <v>44563</v>
       </c>
@@ -7195,11 +7203,15 @@
       <c r="E33" s="21">
         <v>6490</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="F33" s="78">
+        <v>44564</v>
+      </c>
+      <c r="G33" s="79">
+        <v>6490</v>
+      </c>
       <c r="H33" s="19">
         <f t="shared" si="0"/>
-        <v>6490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" s="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7541,11 +7553,11 @@
       <c r="F59" s="41"/>
       <c r="G59" s="41">
         <f>SUM(G4:G58)</f>
-        <v>155145</v>
+        <v>164551</v>
       </c>
       <c r="H59" s="42">
         <f>SUM(H4:H58)</f>
-        <v>9406</v>
+        <v>0</v>
       </c>
       <c r="I59" s="2"/>
     </row>
@@ -7587,12 +7599,12 @@
       <c r="B63" s="39"/>
       <c r="C63" s="40"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="82">
+      <c r="E63" s="84">
         <f>E59-G59</f>
-        <v>9406</v>
-      </c>
-      <c r="F63" s="83"/>
-      <c r="G63" s="84"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="85"/>
+      <c r="G63" s="86"/>
       <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -7608,11 +7620,11 @@
       <c r="B65" s="39"/>
       <c r="C65" s="40"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="85" t="s">
+      <c r="E65" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
+      <c r="F65" s="87"/>
+      <c r="G65" s="87"/>
       <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -7765,26 +7777,26 @@
   <sheetData>
     <row r="1" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="G2" s="86" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="G2" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="K2" s="86" t="s">
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="K2" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="O2" s="87" t="s">
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="O2" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="89"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="91"/>
     </row>
     <row r="3" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:17" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
